--- a/Project - Team Management.xlsx
+++ b/Project - Team Management.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Team Tasks" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Summary" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Team Leader</t>
   </si>
@@ -43,25 +44,31 @@
     <t>create voucher</t>
   </si>
   <si>
-    <t>POST /admin/vouchers</t>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/admin/vouchers</t>
   </si>
   <si>
     <t>delete voucher</t>
   </si>
   <si>
-    <t>DELETE /admin/vouchers/:id</t>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/admin/vouchers/:id</t>
   </si>
   <si>
     <t>update voucher</t>
   </si>
   <si>
-    <t>PUT /admin/vouchers/:id</t>
-  </si>
-  <si>
-    <t>retrieve vouchers</t>
-  </si>
-  <si>
-    <t>GET /admin/vouchers</t>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>list of vouchers</t>
+  </si>
+  <si>
+    <t>GET</t>
   </si>
   <si>
     <t>API Endpoints (user)</t>
@@ -70,47 +77,44 @@
     <t>list of redeemable vouchers</t>
   </si>
   <si>
-    <t>GET /user/vouchers</t>
+    <t>/vouchers?type=redeem</t>
   </si>
   <si>
     <t>redeem a voucher</t>
   </si>
   <si>
-    <t>POST /user/redemptions</t>
+    <t>/user/redemptions</t>
+  </si>
+  <si>
+    <t>/vouchers</t>
   </si>
   <si>
     <t>validate a voucher</t>
   </si>
   <si>
-    <t>GET /user/vouchers/:id</t>
+    <t>/vouchers/:id</t>
   </si>
   <si>
     <t>apply for voucher</t>
   </si>
   <si>
-    <t>POST /user/vouchers/:id/usages</t>
+    <t>/user/vouchers</t>
   </si>
   <si>
     <t>list of redeemed vouchers</t>
   </si>
   <si>
-    <t>GET /user/redemptions</t>
-  </si>
-  <si>
     <t>voucher usages</t>
   </si>
   <si>
-    <t>GET /user/vouchers/usages</t>
-  </si>
-  <si>
-    <t>GET /vouchers/usages</t>
+    <t>/admin/vouchers/user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -129,12 +133,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +156,12 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -154,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -170,7 +185,11 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -182,6 +201,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -389,250 +412,284 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="1.88"/>
-    <col customWidth="1" min="3" max="3" width="24.75"/>
-    <col customWidth="1" min="4" max="4" width="25.0"/>
+    <col customWidth="1" min="1" max="1" width="4.0"/>
+    <col customWidth="1" min="2" max="2" width="24.75"/>
+    <col customWidth="1" min="3" max="3" width="7.5"/>
+    <col customWidth="1" min="4" max="4" width="42.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5">
-      <c r="C5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
+      <c r="A7" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
         <v>1.0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
         <v>2.0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
         <v>3.0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
         <v>6.0</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>30</v>
+      <c r="D26" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>